--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -32,39 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="32">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="aaa"/>
-    <numFmt numFmtId="178" formatCode="0.0&quot;時&quot;&quot;間&quot;"/>
-    <numFmt numFmtId="179" formatCode="General&quot;件&quot;"/>
-    <numFmt numFmtId="180" formatCode="General&quot;月&quot;"/>
-    <numFmt numFmtId="181" formatCode="m/d;@"/>
-    <numFmt numFmtId="182" formatCode="#,###&quot;件&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,###&quot;件/日&quot;"/>
-    <numFmt numFmtId="184" formatCode="###&quot;件&quot;"/>
-    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="186" formatCode="#,##0.0_ &quot;件&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,###.0&quot;件&quot;"/>
-    <numFmt numFmtId="188" formatCode="#,###.0&quot;件/日&quot;"/>
-    <numFmt numFmtId="189" formatCode="0&quot;月&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.0&quot;件&quot;"/>
-    <numFmt numFmtId="191" formatCode="0&quot;件&quot;"/>
-    <numFmt numFmtId="192" formatCode="0_ "/>
-    <numFmt numFmtId="193" formatCode="0.0"/>
-    <numFmt numFmtId="194" formatCode="yyyy/m/d\ \(aaa\)"/>
-    <numFmt numFmtId="195" formatCode="m&quot;月&quot;"/>
-    <numFmt numFmtId="196" formatCode="yyyy&quot;年&quot;&quot;度　&quot;\(ggge&quot;年&quot;&quot;度&quot;\)"/>
-    <numFmt numFmtId="197" formatCode="#,##0_ "/>
-    <numFmt numFmtId="198" formatCode="\'yy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="199" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="200" formatCode="ggge&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="201" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="202" formatCode="m/d\(aaa\)"/>
-    <numFmt numFmtId="203" formatCode="m/d"/>
-    <numFmt numFmtId="204" formatCode="#,##0.0\ &quot;件&quot;"/>
-    <numFmt numFmtId="205" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="206" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -428,19 +398,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1">
-      <c r="A1">
-        <v>818</v>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>【戸籍等処理実績】</v>
+      </c>
+      <c r="C3" t="str">
+        <v>営業日</v>
+      </c>
+      <c r="P3">
+        <f>SUM(D3:O3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="str">
+        <v>4月</v>
+      </c>
+      <c r="E4" t="str">
+        <v>5月</v>
+      </c>
+      <c r="F4" t="str">
+        <v>6月</v>
+      </c>
+      <c r="G4" t="str">
+        <v>7月</v>
+      </c>
+      <c r="H4" t="str">
+        <v>8月</v>
+      </c>
+      <c r="I4" t="str">
+        <v>9月</v>
+      </c>
+      <c r="J4" t="str">
+        <v>10月</v>
+      </c>
+      <c r="K4" t="str">
+        <v>11月</v>
+      </c>
+      <c r="L4" t="str">
+        <v>12月</v>
+      </c>
+      <c r="M4" t="str">
+        <v>1月</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2月</v>
+      </c>
+      <c r="O4" t="str">
+        <v>3月</v>
+      </c>
+      <c r="P4" t="str">
+        <v>合計</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>① 届出処理業務（送付分のみ）</v>
+      </c>
+      <c r="D5" t="str">
+        <v>hoge1</v>
+      </c>
+      <c r="P5">
+        <f>SUM(D5:O5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>② 人口動態処理業務（全件）</v>
+      </c>
+      <c r="P6">
+        <f>SUM(D6:O6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>③ 附表関連処理業務</v>
+      </c>
+      <c r="P7">
+        <f>SUM(D7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>④ 郵送による戸籍証明書の交付に係る業務（戸籍・除籍・身分証明書・独身証明書・附票）</v>
+      </c>
+      <c r="C8" t="str">
+        <v>一般</v>
+      </c>
+      <c r="P8">
+        <f>SUM(D8:O8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="str">
+        <v>公用</v>
+      </c>
+      <c r="P9">
+        <f>SUM(D9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>P8+P9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>合計</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D5:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E5:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F5:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G5:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H5:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I5:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J5:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K5:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>SUM(L5:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>SUM(M5:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>SUM(N5:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>SUM(O5:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>SUM(P5:P9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>【住民票の写しの交付実績】</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="str">
+        <v>4月</v>
+      </c>
+      <c r="E14" t="str">
+        <v>5月</v>
+      </c>
+      <c r="F14" t="str">
+        <v>6月</v>
+      </c>
+      <c r="G14" t="str">
+        <v>7月</v>
+      </c>
+      <c r="H14" t="str">
+        <v>8月</v>
+      </c>
+      <c r="I14" t="str">
+        <v>9月</v>
+      </c>
+      <c r="J14" t="str">
+        <v>10月</v>
+      </c>
+      <c r="K14" t="str">
+        <v>11月</v>
+      </c>
+      <c r="L14" t="str">
+        <v>12月</v>
+      </c>
+      <c r="M14" t="str">
+        <v>1月</v>
+      </c>
+      <c r="N14" t="str">
+        <v>2月</v>
+      </c>
+      <c r="O14" t="str">
+        <v>3月</v>
+      </c>
+      <c r="P14" t="str">
+        <v>合計</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>① 一般請求分（送付分のみ）</v>
+      </c>
+      <c r="P15">
+        <f>SUM(D15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>② 公用請求分（送付分のみ）</v>
+      </c>
+      <c r="P16">
+        <f>SUM(D16:O16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>④ 郵送住民票返戻（該当なし）（送付分のみ）</v>
+      </c>
+      <c r="C17" t="str">
+        <v>一般</v>
+      </c>
+      <c r="P17">
+        <f>SUM(D17:O17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>公用</v>
+      </c>
+      <c r="P18">
+        <f>SUM(D18:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>P17+P18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>合計</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D15:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F15:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G15:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H15:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>SUM(I15:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J15:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K15:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L15:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>SUM(M15:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>SUM(N15:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>SUM(O15:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>SUM(P15:P18)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="Q5:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="B3:Q21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,59 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+  <si>
+    <t>【戸籍等処理実績】</t>
+  </si>
+  <si>
+    <t>営業日</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>① 届出処理業務（送付分のみ）</t>
+  </si>
+  <si>
+    <t>② 人口動態処理業務（全件）</t>
+  </si>
+  <si>
+    <t>③ 附表関連処理業務</t>
+  </si>
+  <si>
+    <t>④ 郵送による戸籍証明書の交付に係る業務（戸籍・除籍・身分証明書・独身証明書・附票）</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>公用</t>
+  </si>
+  <si>
+    <t>【住民票の写しの交付実績】</t>
+  </si>
+  <si>
+    <t>① 一般請求分（送付分のみ）</t>
+  </si>
+  <si>
+    <t>② 公用請求分（送付分のみ）</t>
+  </si>
+  <si>
+    <t>④ 郵送住民票返戻（該当なし）（送付分のみ）</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+    </font>
+    <font>
+      <charset val="128"/>
+      <color theme="0"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -61,18 +164,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.3499862666707358"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.3499862666707358"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.3499862666707358"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,332 +673,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:Q21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q21"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>【戸籍等処理実績】</v>
-      </c>
-      <c r="C3" t="str">
-        <v>営業日</v>
-      </c>
-      <c r="P3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
         <f>SUM(D3:O3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="D4" t="str">
-        <v>4月</v>
-      </c>
-      <c r="E4" t="str">
-        <v>5月</v>
-      </c>
-      <c r="F4" t="str">
-        <v>6月</v>
-      </c>
-      <c r="G4" t="str">
-        <v>7月</v>
-      </c>
-      <c r="H4" t="str">
-        <v>8月</v>
-      </c>
-      <c r="I4" t="str">
-        <v>9月</v>
-      </c>
-      <c r="J4" t="str">
-        <v>10月</v>
-      </c>
-      <c r="K4" t="str">
-        <v>11月</v>
-      </c>
-      <c r="L4" t="str">
-        <v>12月</v>
-      </c>
-      <c r="M4" t="str">
-        <v>1月</v>
-      </c>
-      <c r="N4" t="str">
-        <v>2月</v>
-      </c>
-      <c r="O4" t="str">
-        <v>3月</v>
-      </c>
-      <c r="P4" t="str">
-        <v>合計</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>① 届出処理業務（送付分のみ）</v>
-      </c>
-      <c r="D5" t="str">
-        <v>hoge1</v>
-      </c>
-      <c r="P5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
+        <v>949</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="8">
         <f>SUM(D5:O5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>② 人口動態処理業務（全件）</v>
-      </c>
-      <c r="P6">
-        <f>SUM(D6:O6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>③ 附表関連処理業務</v>
-      </c>
-      <c r="P7">
-        <f>SUM(D7:O7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>④ 郵送による戸籍証明書の交付に係る業務（戸籍・除籍・身分証明書・独身証明書・附票）</v>
-      </c>
-      <c r="C8" t="str">
-        <v>一般</v>
-      </c>
-      <c r="P8">
-        <f>SUM(D8:O8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="str">
-        <v>公用</v>
-      </c>
-      <c r="P9">
-        <f>SUM(D9:O9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
+        <v>2422</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13">
+        <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
         <f>P8+P9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="str">
-        <v>合計</v>
-      </c>
-      <c r="D10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <f>SUM(D5:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10">
-        <f>SUM(E5:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>SUM(F5:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G5:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>SUM(H5:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>SUM(I5:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>SUM(J5:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>SUM(K5:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>SUM(L5:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>SUM(M5:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>SUM(N5:N9)</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="E10" s="23">
+        <f t="shared" ref="E10:N10" si="1">SUM(E5:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
         <f>SUM(O5:O9)</f>
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="24">
         <f>SUM(P5:P9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="str">
-        <v>【住民票の写しの交付実績】</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="str">
-        <v>4月</v>
-      </c>
-      <c r="E14" t="str">
-        <v>5月</v>
-      </c>
-      <c r="F14" t="str">
-        <v>6月</v>
-      </c>
-      <c r="G14" t="str">
-        <v>7月</v>
-      </c>
-      <c r="H14" t="str">
-        <v>8月</v>
-      </c>
-      <c r="I14" t="str">
-        <v>9月</v>
-      </c>
-      <c r="J14" t="str">
-        <v>10月</v>
-      </c>
-      <c r="K14" t="str">
-        <v>11月</v>
-      </c>
-      <c r="L14" t="str">
-        <v>12月</v>
-      </c>
-      <c r="M14" t="str">
-        <v>1月</v>
-      </c>
-      <c r="N14" t="str">
-        <v>2月</v>
-      </c>
-      <c r="O14" t="str">
-        <v>3月</v>
-      </c>
-      <c r="P14" t="str">
-        <v>合計</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="str">
-        <v>① 一般請求分（送付分のみ）</v>
-      </c>
-      <c r="P15">
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="8">
         <f>SUM(D15:O15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="str">
-        <v>② 公用請求分（送付分のみ）</v>
-      </c>
-      <c r="P16">
-        <f>SUM(D16:O16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="str">
-        <v>④ 郵送住民票返戻（該当なし）（送付分のみ）</v>
-      </c>
-      <c r="C17" t="str">
-        <v>一般</v>
-      </c>
-      <c r="P17">
-        <f>SUM(D17:O17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>公用</v>
-      </c>
-      <c r="P18">
-        <f>SUM(D18:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13">
+        <f t="shared" ref="P16:P18" si="2">SUM(D16:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22">
         <f>P17+P18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="str">
-        <v>合計</v>
-      </c>
-      <c r="D19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23">
         <f>SUM(D15:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19">
-        <f>SUM(E15:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>SUM(F15:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>SUM(G15:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f>SUM(H15:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f>SUM(I15:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>SUM(J15:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>SUM(K15:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>SUM(L15:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>SUM(M15:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f>SUM(N15:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f>SUM(O15:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="E19" s="23">
+        <f t="shared" ref="E19:O19" si="3">SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
         <f>SUM(P15:P18)</f>
         <v>0</v>
       </c>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="B3:Q21"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>【戸籍等処理実績】</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>公用</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>【住民票の写しの交付実績】</t>
@@ -753,7 +756,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>949</v>
+        <v>1381</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -779,7 +782,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11">
-        <v>2422</v>
+        <v>949</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -804,7 +807,9 @@
         <v>17</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>2422</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="15"/>
@@ -958,7 +963,9 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -976,7 +983,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1042,7 +1049,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -1066,7 +1073,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="12"/>
@@ -1090,7 +1097,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>19</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>【戸籍等処理実績】</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>公用</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>【住民票の写しの交付実績】</t>
@@ -688,21 +685,37 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
         <f>SUM(D3:O3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -758,20 +771,34 @@
       <c r="D5" s="6">
         <v>1381</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="7">
+        <v>1458</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1437</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1088</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1585</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1412</v>
+      </c>
+      <c r="J5" s="6">
+        <v>659</v>
+      </c>
+      <c r="K5" s="6">
+        <v>674</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="8">
         <f>SUM(D5:O5)</f>
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
@@ -784,20 +811,34 @@
       <c r="D6" s="11">
         <v>949</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="E6" s="12">
+        <v>806</v>
+      </c>
+      <c r="F6" s="12">
+        <v>815</v>
+      </c>
+      <c r="G6" s="12">
+        <v>831</v>
+      </c>
+      <c r="H6" s="12">
+        <v>950</v>
+      </c>
+      <c r="I6" s="12">
+        <v>956</v>
+      </c>
+      <c r="J6" s="12">
+        <v>896</v>
+      </c>
+      <c r="K6" s="12">
+        <v>896</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="13">
         <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
@@ -810,20 +851,34 @@
       <c r="D7" s="11">
         <v>2422</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="E7" s="11">
+        <v>2481</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2833</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2193</v>
+      </c>
+      <c r="H7" s="15">
+        <v>2331</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1693</v>
+      </c>
+      <c r="J7" s="15">
+        <v>2170</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1996</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2422</v>
       </c>
       <c r="Q7" s="16"/>
     </row>
@@ -835,21 +890,37 @@
       <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="D8" s="15">
+        <v>2904</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3037</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3546</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2882</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2991</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3037</v>
+      </c>
+      <c r="J8" s="15">
+        <v>3074</v>
+      </c>
+      <c r="K8" s="15">
+        <v>3383</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2904</v>
       </c>
       <c r="Q8" s="16"/>
     </row>
@@ -859,25 +930,41 @@
       <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="D9" s="15">
+        <v>2890</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3553</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4179</v>
+      </c>
+      <c r="G9" s="15">
+        <v>3678</v>
+      </c>
+      <c r="H9" s="15">
+        <v>3760</v>
+      </c>
+      <c r="I9" s="15">
+        <v>4205</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3740</v>
+      </c>
+      <c r="K9" s="15">
+        <v>3492</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="22">
         <f>P8+P9</f>
-        <v>0</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -888,7 +975,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23">
         <f>SUM(D5:D9)</f>
-        <v>0</v>
+        <v>7842</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" ref="E10:N10" si="1">SUM(E5:E9)</f>
@@ -936,7 +1023,7 @@
       </c>
       <c r="P10" s="24">
         <f>SUM(P5:P9)</f>
-        <v>0</v>
+        <v>7842</v>
       </c>
       <c r="Q10" s="22"/>
     </row>
@@ -963,9 +1050,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -983,7 +1068,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1049,17 +1134,33 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="D15" s="6">
+        <v>1729</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1928</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1812</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1968</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1634</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1554</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2300</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2083</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="12"/>
@@ -1073,17 +1174,33 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="D16" s="12">
+        <v>1220</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1192</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1886</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1180</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1552</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1641</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1343</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1087</v>
+      </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="15"/>
@@ -1097,19 +1214,35 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="D17" s="12">
+        <v>250</v>
+      </c>
+      <c r="E17" s="12">
+        <v>253</v>
+      </c>
+      <c r="F17" s="12">
+        <v>207</v>
+      </c>
+      <c r="G17" s="12">
+        <v>231</v>
+      </c>
+      <c r="H17" s="12">
+        <v>182</v>
+      </c>
+      <c r="I17" s="12">
+        <v>203</v>
+      </c>
+      <c r="J17" s="12">
+        <v>328</v>
+      </c>
+      <c r="K17" s="12">
+        <v>228</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -1126,14 +1259,30 @@
       <c r="C18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="15">
+        <v>186</v>
+      </c>
+      <c r="E18" s="15">
+        <v>112</v>
+      </c>
+      <c r="F18" s="15">
+        <v>174</v>
+      </c>
+      <c r="G18" s="15">
+        <v>143</v>
+      </c>
+      <c r="H18" s="15">
+        <v>183</v>
+      </c>
+      <c r="I18" s="15">
+        <v>170</v>
+      </c>
+      <c r="J18" s="15">
+        <v>229</v>
+      </c>
+      <c r="K18" s="15">
+        <v>106</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
